--- a/ListaAlumnosDia/FUNDAMENTOS DE PROGRAMACION24122021.xlsx
+++ b/ListaAlumnosDia/FUNDAMENTOS DE PROGRAMACION24122021.xlsx
@@ -6,7 +6,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet name="Sheet1" sheetId="1" r:id="Re3d7a774f1074c8f"/>
+    <x:sheet name="Sheet1" sheetId="1" r:id="Rd21ae249188d4de0"/>
   </x:sheets>
 </x:workbook>
 </file>
